--- a/sampleData/sampleFormDatabase.xlsx
+++ b/sampleData/sampleFormDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\OneDrive\Documents\01 Work\02 Employment\09 RMIT casual\MTH-Derive\sampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1466741A-5ECA-4794-ACB3-CF5A29BB70ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297D8557-2F27-42BE-8D2A-D9ED9C8E2B0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="3465" windowWidth="19185" windowHeight="10785" xr2:uid="{1A7EFC44-E509-4566-AD27-199B40FC8235}"/>
+    <workbookView xWindow="3450" yWindow="915" windowWidth="19185" windowHeight="10785" xr2:uid="{1A7EFC44-E509-4566-AD27-199B40FC8235}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>entry_id</t>
   </si>
@@ -350,6 +350,57 @@
   </si>
   <si>
     <t>http://www.more-than-human-derive.net/wp-content/uploads/wpforms/36-7b8cbc9d1a44f92913427f3c8bbb4216/Kilmer_cover-6eeae84b0f6ba06f67f8e99fb1ccde87.jpg</t>
+  </si>
+  <si>
+    <t>whisperLat</t>
+  </si>
+  <si>
+    <t>whisperLon</t>
+  </si>
+  <si>
+    <t>the_geom</t>
+  </si>
+  <si>
+    <t>CoordinateLocation</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>(-37.832992415997346, 144.9772303573084)</t>
+  </si>
+  <si>
+    <t>(-37.79235780254598, 144.95995514785466)</t>
+  </si>
+  <si>
+    <t>(-37.7846053598162, 144.943850669978)</t>
+  </si>
+  <si>
+    <t>(-37.7881420807408, 144.92636749064422)</t>
+  </si>
+  <si>
+    <t>(-37.78371608098476, 144.94582367990856)</t>
+  </si>
+  <si>
+    <t>(-37.78634389488256, 144.9438549427767)</t>
+  </si>
+  <si>
+    <t>(-37.829761985912704, 144.96452534992383)</t>
+  </si>
+  <si>
+    <t>(-37.79588857341509, 144.91781799676951)</t>
+  </si>
+  <si>
+    <t>(-37.82214810565181, 144.95673981927644)</t>
+  </si>
+  <si>
+    <t>(-37.800821523409915, 144.94598063675863)</t>
+  </si>
+  <si>
+    <t>(-37.78898831672934, 144.92832548716277)</t>
   </si>
 </sst>
 </file>
@@ -2617,21 +2668,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7910EF05-B633-4019-A938-F4F50B68E7E6}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.85546875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.42578125" customWidth="1"/>
+    <col min="16" max="16" width="45.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2644,29 +2698,47 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2680,28 +2752,43 @@
         <v>1031784</v>
       </c>
       <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2">
+        <v>-37.832992415997303</v>
+      </c>
+      <c r="G2">
+        <v>144.977230357308</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="e" vm="1">
+      <c r="M2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="N2">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2715,28 +2802,43 @@
         <v>1022235</v>
       </c>
       <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <v>-37.792357802545901</v>
+      </c>
+      <c r="G3">
+        <v>144.959955147854</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="e" vm="2">
+      <c r="M3" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="N3">
+        <v>22</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="Q3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2750,28 +2852,43 @@
         <v>1525114</v>
       </c>
       <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4">
+        <v>-37.784605359816197</v>
+      </c>
+      <c r="G4">
+        <v>144.94385066997799</v>
+      </c>
+      <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="e" vm="3">
+      <c r="M4" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>40</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
+      <c r="Q4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2785,28 +2902,43 @@
         <v>1744866</v>
       </c>
       <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>-37.788142080740798</v>
+      </c>
+      <c r="G5">
+        <v>144.926367490644</v>
+      </c>
+      <c r="I5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="e" vm="4">
+      <c r="M5" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="N5">
+        <v>-18</v>
+      </c>
+      <c r="O5">
+        <v>36</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K5" t="s">
+      <c r="Q5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2820,28 +2952,43 @@
         <v>1754915</v>
       </c>
       <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6">
+        <v>-37.783716080984703</v>
+      </c>
+      <c r="G6">
+        <v>144.94582367990799</v>
+      </c>
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" t="e" vm="5">
+      <c r="M6" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="N6">
+        <v>-22</v>
+      </c>
+      <c r="O6">
+        <v>150</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K6" t="s">
+      <c r="Q6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2855,28 +3002,43 @@
         <v>1520008</v>
       </c>
       <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7">
+        <v>-37.786343894882499</v>
+      </c>
+      <c r="G7">
+        <v>144.943854942776</v>
+      </c>
+      <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I7" t="e" vm="6">
+      <c r="M7" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="N7">
+        <v>-30</v>
+      </c>
+      <c r="O7">
+        <v>30</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K7" t="s">
+      <c r="Q7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2890,28 +3052,43 @@
         <v>1287909</v>
       </c>
       <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>-37.829761985912697</v>
+      </c>
+      <c r="G8">
+        <v>144.96452534992301</v>
+      </c>
+      <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I8" t="e" vm="7">
+      <c r="M8" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>140</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K8" t="s">
+      <c r="Q8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2925,28 +3102,43 @@
         <v>1769096</v>
       </c>
       <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9">
+        <v>-37.795888573414999</v>
+      </c>
+      <c r="G9">
+        <v>144.917817996769</v>
+      </c>
+      <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I9" t="e" vm="8">
+      <c r="M9" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="O9">
+        <v>80</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K9" t="s">
+      <c r="Q9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2960,28 +3152,43 @@
         <v>1041139</v>
       </c>
       <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>-37.822148105651799</v>
+      </c>
+      <c r="G10">
+        <v>144.95673981927601</v>
+      </c>
+      <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" t="s">
+      <c r="J10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I10" t="e" vm="9">
+      <c r="M10" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K10" t="s">
+      <c r="Q10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2995,28 +3202,43 @@
         <v>1015034</v>
       </c>
       <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11">
+        <v>-37.800821523409901</v>
+      </c>
+      <c r="G11">
+        <v>144.94598063675801</v>
+      </c>
+      <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I11" t="e" vm="7">
+      <c r="M11" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="N11">
+        <v>14</v>
+      </c>
+      <c r="O11">
+        <v>60</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K11" t="s">
+      <c r="Q11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3030,51 +3252,66 @@
         <v>1286254</v>
       </c>
       <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12">
+        <v>-37.788988316729302</v>
+      </c>
+      <c r="G12">
+        <v>144.928325487162</v>
+      </c>
+      <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I12" t="e" vm="10">
+      <c r="M12" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="N12">
+        <v>-12</v>
+      </c>
+      <c r="O12">
+        <v>120</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K12" t="s">
+      <c r="Q12" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{E33E817D-0FE7-458F-9ADA-5634E0015D39}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{5BCDAF37-98CA-4371-9CCE-ABDA9C0A1BAF}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{B95C5145-BBB2-4573-B866-2E1E5B79087E}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{637A6DFC-7282-4739-AC0E-34B084CE6FC0}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{83DC54A8-978D-4D55-9874-3BA78B81FAF2}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{1524F792-AA06-4FA9-B757-A6D616FD0601}"/>
-    <hyperlink ref="G12" r:id="rId7" display="kate@whisper.com" xr:uid="{9E45B03A-CA4F-4E0B-A252-386F08F14C93}"/>
-    <hyperlink ref="G8" r:id="rId8" xr:uid="{E5DB341B-4B78-467D-9CCB-28B6AF4E4557}"/>
-    <hyperlink ref="G9" r:id="rId9" xr:uid="{E5648359-2C45-43ED-BE9A-8DED002A4E4A}"/>
-    <hyperlink ref="G10" r:id="rId10" xr:uid="{FDCB5CBF-49D6-40E5-87D9-9C8C12143DAA}"/>
-    <hyperlink ref="G11" r:id="rId11" xr:uid="{02A3E16B-B37D-4D82-B858-44D8B37FA3A3}"/>
-    <hyperlink ref="H4" r:id="rId12" xr:uid="{524FB8CE-BD96-403A-A0E3-82ABFCB6B6F5}"/>
-    <hyperlink ref="H5" r:id="rId13" xr:uid="{1B5F97A6-8B40-4253-A1EE-31DBBD15D6F5}"/>
-    <hyperlink ref="H6" r:id="rId14" xr:uid="{183743DC-36EB-4DFD-AFA5-A34AB53FAFED}"/>
-    <hyperlink ref="H7" r:id="rId15" xr:uid="{664D3A40-FC63-405D-8693-28303CE42737}"/>
-    <hyperlink ref="H8" r:id="rId16" xr:uid="{003AF153-C287-4495-83C5-A583D8FCD8A2}"/>
-    <hyperlink ref="H9" r:id="rId17" xr:uid="{90A40132-49C5-4CEB-91BE-59743F374704}"/>
-    <hyperlink ref="H3" r:id="rId18" display="kate@whisper.com" xr:uid="{BA976C89-A858-4E67-94F1-2DF44FC0E45B}"/>
-    <hyperlink ref="H10" r:id="rId19" xr:uid="{55B4AAF1-56A7-4A97-96C0-DFEBCE29CFCE}"/>
-    <hyperlink ref="H11" r:id="rId20" xr:uid="{9DFBB05B-A62C-4D9F-B48E-988ECE008066}"/>
-    <hyperlink ref="H12" r:id="rId21" xr:uid="{5CD49209-4811-465C-9A2A-941BBD6A2023}"/>
-    <hyperlink ref="H2" r:id="rId22" xr:uid="{5460B622-67E3-4EE8-8685-E1DA5D097E99}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{E33E817D-0FE7-458F-9ADA-5634E0015D39}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{5BCDAF37-98CA-4371-9CCE-ABDA9C0A1BAF}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{B95C5145-BBB2-4573-B866-2E1E5B79087E}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{637A6DFC-7282-4739-AC0E-34B084CE6FC0}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{83DC54A8-978D-4D55-9874-3BA78B81FAF2}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{1524F792-AA06-4FA9-B757-A6D616FD0601}"/>
+    <hyperlink ref="K12" r:id="rId7" display="kate@whisper.com" xr:uid="{9E45B03A-CA4F-4E0B-A252-386F08F14C93}"/>
+    <hyperlink ref="K8" r:id="rId8" xr:uid="{E5DB341B-4B78-467D-9CCB-28B6AF4E4557}"/>
+    <hyperlink ref="K9" r:id="rId9" xr:uid="{E5648359-2C45-43ED-BE9A-8DED002A4E4A}"/>
+    <hyperlink ref="K10" r:id="rId10" xr:uid="{FDCB5CBF-49D6-40E5-87D9-9C8C12143DAA}"/>
+    <hyperlink ref="K11" r:id="rId11" xr:uid="{02A3E16B-B37D-4D82-B858-44D8B37FA3A3}"/>
+    <hyperlink ref="L4" r:id="rId12" xr:uid="{524FB8CE-BD96-403A-A0E3-82ABFCB6B6F5}"/>
+    <hyperlink ref="L5" r:id="rId13" xr:uid="{1B5F97A6-8B40-4253-A1EE-31DBBD15D6F5}"/>
+    <hyperlink ref="L6" r:id="rId14" xr:uid="{183743DC-36EB-4DFD-AFA5-A34AB53FAFED}"/>
+    <hyperlink ref="L7" r:id="rId15" xr:uid="{664D3A40-FC63-405D-8693-28303CE42737}"/>
+    <hyperlink ref="L8" r:id="rId16" xr:uid="{003AF153-C287-4495-83C5-A583D8FCD8A2}"/>
+    <hyperlink ref="L9" r:id="rId17" xr:uid="{90A40132-49C5-4CEB-91BE-59743F374704}"/>
+    <hyperlink ref="L3" r:id="rId18" display="kate@whisper.com" xr:uid="{BA976C89-A858-4E67-94F1-2DF44FC0E45B}"/>
+    <hyperlink ref="L10" r:id="rId19" xr:uid="{55B4AAF1-56A7-4A97-96C0-DFEBCE29CFCE}"/>
+    <hyperlink ref="L11" r:id="rId20" xr:uid="{9DFBB05B-A62C-4D9F-B48E-988ECE008066}"/>
+    <hyperlink ref="L12" r:id="rId21" xr:uid="{5CD49209-4811-465C-9A2A-941BBD6A2023}"/>
+    <hyperlink ref="L2" r:id="rId22" xr:uid="{5460B622-67E3-4EE8-8685-E1DA5D097E99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId23"/>
